--- a/data/trans_dic/DCD-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Habitat-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.1386449688094417</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2634377553155856</v>
+        <v>0.2634377553155857</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.136279706388505</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0656225594632355</v>
+        <v>0.06457671687571717</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05243965613374416</v>
+        <v>0.05091865323779836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1253387283754852</v>
+        <v>0.1225976737673887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1592845593061692</v>
+        <v>0.1607544953454811</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1151595070511458</v>
+        <v>0.1136068386844099</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2391874498546536</v>
+        <v>0.2380910853561977</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1182928430765887</v>
+        <v>0.1183060058407473</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08832431221237204</v>
+        <v>0.08863005524032953</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.190218744169884</v>
+        <v>0.1883825482313554</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1079114103522751</v>
+        <v>0.1077140926849796</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09228739679450079</v>
+        <v>0.09113696097978265</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1750238105993122</v>
+        <v>0.1712255501065579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2194195609736798</v>
+        <v>0.219392295714311</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1671302925638533</v>
+        <v>0.1657765388522986</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.291126193773518</v>
+        <v>0.2878985042045755</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.156216224396732</v>
+        <v>0.1570089837070392</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1226871139910379</v>
+        <v>0.1221296496671274</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2255664206049421</v>
+        <v>0.2258563093561913</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.06946903129678517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1137653312098381</v>
+        <v>0.113765331209838</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1612292449423518</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05075634388345744</v>
+        <v>0.04941113089729436</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05399651236606819</v>
+        <v>0.05568664438218594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09658358803645559</v>
+        <v>0.09658107052072423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1402275985591026</v>
+        <v>0.140201282463174</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1063050349429387</v>
+        <v>0.1061234242147765</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.235047881235894</v>
+        <v>0.2374433595990757</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09926138144498307</v>
+        <v>0.09977167319459035</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08557663099705042</v>
+        <v>0.08410070605694983</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1714975705320612</v>
+        <v>0.1723479613334953</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08254195176828376</v>
+        <v>0.08335793605376991</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08801299761979424</v>
+        <v>0.08832971645357154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1340374860726908</v>
+        <v>0.1349046469778669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.185501358779116</v>
+        <v>0.1858264719204668</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.150400025691743</v>
+        <v>0.1485045100400841</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2829514022454857</v>
+        <v>0.2818015251301709</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1278114606743086</v>
+        <v>0.1300732608649417</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1132512887286594</v>
+        <v>0.1124227079566966</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2033435437868993</v>
+        <v>0.203402054278194</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03981427113884833</v>
+        <v>0.03941355655704811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04174313039043564</v>
+        <v>0.04118616866016681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09571602195729163</v>
+        <v>0.09852924132007491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1210754197500279</v>
+        <v>0.1220676214797333</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08707042059496123</v>
+        <v>0.08650969786588905</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2480723045317169</v>
+        <v>0.253135795270844</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08508151763121947</v>
+        <v>0.08623889763590604</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06964305872461742</v>
+        <v>0.06900089728503485</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1806738240947033</v>
+        <v>0.1792067742694946</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07416129729082845</v>
+        <v>0.07755642767484623</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07608121042780713</v>
+        <v>0.07712643759033476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1447357391505853</v>
+        <v>0.1434334408796686</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1740951030389544</v>
+        <v>0.1735479905688635</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1329264181059657</v>
+        <v>0.1304346748264913</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3078046208984653</v>
+        <v>0.307656697546654</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1187191419562816</v>
+        <v>0.120398456968019</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09847126008206195</v>
+        <v>0.09790436984506842</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2177108510078846</v>
+        <v>0.2180745473203828</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04753542697244111</v>
+        <v>0.05035511958707833</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05521011778750559</v>
+        <v>0.05516162837160808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1208200041984849</v>
+        <v>0.1191018809300841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1384625112699197</v>
+        <v>0.1399306580672927</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1234187882358044</v>
+        <v>0.1252461592779448</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.246831390862859</v>
+        <v>0.2464106786009467</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09987015248483672</v>
+        <v>0.1013961114850432</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09610694391252535</v>
+        <v>0.09667799787147455</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1944558572256694</v>
+        <v>0.1938950416417262</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08013693960877059</v>
+        <v>0.08359402147966097</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08897494845779264</v>
+        <v>0.08873519062467075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1619734574177155</v>
+        <v>0.1632468067126438</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1834754448469456</v>
+        <v>0.1871822400738856</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1716880513913938</v>
+        <v>0.171217425427383</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2934294863299841</v>
+        <v>0.2923031966392132</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1284170058590978</v>
+        <v>0.1301634489495329</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1263853517270081</v>
+        <v>0.1260639333226267</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2262231926291848</v>
+        <v>0.2245793246494273</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.09951588672539331</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1998455739564969</v>
+        <v>0.1998455739564968</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05886419902711722</v>
+        <v>0.05820421111470865</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05920348655569497</v>
+        <v>0.0583502555889354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1184113524953561</v>
+        <v>0.117796707733312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1506723377128215</v>
+        <v>0.1514326321269351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1182547476009358</v>
+        <v>0.1191281939959602</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2524961827463597</v>
+        <v>0.2542391733648293</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1073389647459468</v>
+        <v>0.1073182729257103</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09237912693623766</v>
+        <v>0.09161158618356394</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1914702871060758</v>
+        <v>0.1914092555334616</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07563779031655364</v>
+        <v>0.07553627819715771</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07608892194863291</v>
+        <v>0.07654085190246197</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1398739045250559</v>
+        <v>0.1397306671235299</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1757615556231975</v>
+        <v>0.1756567128164644</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1415528757413859</v>
+        <v>0.1425448884298514</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2800738435272774</v>
+        <v>0.2794617088889694</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1231805104111187</v>
+        <v>0.1227714926479408</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1069800333982346</v>
+        <v>0.1066509541043104</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2090221462754771</v>
+        <v>0.2079970453229994</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>46163</v>
+        <v>45428</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35386</v>
+        <v>34360</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86573</v>
+        <v>84679</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>111029</v>
+        <v>112054</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>77484</v>
+        <v>76439</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>175607</v>
+        <v>174802</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>165671</v>
+        <v>165690</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>119029</v>
+        <v>119441</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>271041</v>
+        <v>268424</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>75912</v>
+        <v>75774</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62276</v>
+        <v>61499</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>120891</v>
+        <v>118267</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>152946</v>
+        <v>152927</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>112452</v>
+        <v>111541</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>213739</v>
+        <v>211369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>218784</v>
+        <v>219894</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>165338</v>
+        <v>164587</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>321407</v>
+        <v>321820</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51667</v>
+        <v>50298</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>55208</v>
+        <v>56936</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>101308</v>
+        <v>101306</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>144741</v>
+        <v>144714</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>110867</v>
+        <v>110677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>251848</v>
+        <v>254414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>203499</v>
+        <v>204545</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>176745</v>
+        <v>173697</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>363642</v>
+        <v>365445</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>84023</v>
+        <v>84854</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>89987</v>
+        <v>90311</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>140594</v>
+        <v>141504</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>191472</v>
+        <v>191807</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>156854</v>
+        <v>154877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>303175</v>
+        <v>301943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>262030</v>
+        <v>266667</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>233903</v>
+        <v>232192</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>431168</v>
+        <v>431292</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30164</v>
+        <v>29861</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31706</v>
+        <v>31283</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>76867</v>
+        <v>79126</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>94097</v>
+        <v>94868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>68351</v>
+        <v>67911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>201499</v>
+        <v>205612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>130583</v>
+        <v>132359</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>107568</v>
+        <v>106576</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>291848</v>
+        <v>289478</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>56186</v>
+        <v>58759</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>57788</v>
+        <v>58582</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>116233</v>
+        <v>115188</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>135302</v>
+        <v>134877</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>104349</v>
+        <v>102393</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>250017</v>
+        <v>249897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>182210</v>
+        <v>184787</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>152095</v>
+        <v>151219</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>351675</v>
+        <v>352263</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45051</v>
+        <v>47724</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51763</v>
+        <v>51718</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>119619</v>
+        <v>117918</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>145649</v>
+        <v>147193</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>128822</v>
+        <v>130729</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>276214</v>
+        <v>275744</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>199704</v>
+        <v>202756</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>190421</v>
+        <v>191553</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>410128</v>
+        <v>408945</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>75949</v>
+        <v>79225</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>83420</v>
+        <v>83195</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>160364</v>
+        <v>161624</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>192998</v>
+        <v>196897</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>179204</v>
+        <v>178713</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>328360</v>
+        <v>327099</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>256788</v>
+        <v>260280</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>250413</v>
+        <v>249776</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>477128</v>
+        <v>473661</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>201715</v>
+        <v>199453</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>200957</v>
+        <v>198061</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>418319</v>
+        <v>416148</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>536139</v>
+        <v>538844</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>419159</v>
+        <v>422255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>943567</v>
+        <v>950080</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>749772</v>
+        <v>749628</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>641009</v>
+        <v>635683</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1391935</v>
+        <v>1391491</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>259194</v>
+        <v>258846</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>258272</v>
+        <v>259806</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>494141</v>
+        <v>493635</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>625414</v>
+        <v>625041</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>501740</v>
+        <v>505256</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1046623</v>
+        <v>1044336</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>860427</v>
+        <v>857570</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>742323</v>
+        <v>740039</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1519532</v>
+        <v>1512079</v>
       </c>
     </row>
     <row r="24">
